--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject33.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject33.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -155,13 +155,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="0">
-        <v>0</v>
+        <v>0.6264738997929028</v>
       </c>
       <c r="K1" s="0">
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>0</v>
+        <v>0.93586604860607547</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
@@ -206,7 +206,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="0">
         <v>0</v>
@@ -290,13 +290,13 @@
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>0</v>
+        <v>0.94412326198865704</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1" s="0">
         <v>0</v>
@@ -370,10 +370,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.89338930329309507</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>0.63017391884893026</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>0</v>
+        <v>0.5623123826039842</v>
       </c>
       <c r="V2" s="0">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="0">
-        <v>0</v>
+        <v>0.74934022959056135</v>
       </c>
       <c r="AR2" s="0">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>0</v>
+        <v>0.98030228986320833</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>1</v>
+        <v>0.53435591792862258</v>
       </c>
       <c r="U3" s="0">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AM3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="0">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="0">
-        <v>0</v>
+        <v>0.86622687950085675</v>
       </c>
       <c r="BK3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0</v>
+        <v>0.66039610114869718</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0</v>
+        <v>0.73800885461036869</v>
       </c>
       <c r="Q4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>1</v>
+        <v>0.8460766892043009</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
+        <v>0.70496421241406404</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>0</v>
+        <v>0.75712034441793175</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1081,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>0</v>
+        <v>0.74979143103983503</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
       </c>
       <c r="AV5" s="0">
-        <v>0</v>
+        <v>0.63345647633669966</v>
       </c>
       <c r="AW5" s="0">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0</v>
+        <v>0.56635277684198493</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.73006015179861961</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.93541569112509593</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="0">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>0</v>
+        <v>0.74831613585283918</v>
       </c>
       <c r="BG6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.8399651978984245</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.83732763869330773</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>0.87460701918335348</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>0</v>
+        <v>0.78548713688544647</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>0</v>
+        <v>0.93066809021893604</v>
       </c>
       <c r="BB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.70069361079729875</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>0.75216549209998307</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.60303685412478703</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.69907071861547121</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0</v>
+        <v>0.60108379458087224</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="0">
-        <v>0</v>
+        <v>0.93116680180552358</v>
       </c>
       <c r="AM8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0</v>
+        <v>0.791972499707429</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0</v>
+        <v>0.58777828132866983</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>0</v>
+        <v>0.88177712541782305</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="0">
-        <v>0</v>
+        <v>0.88429084893402232</v>
       </c>
       <c r="BI9" s="0">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0</v>
+        <v>0.80685664411202329</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0</v>
+        <v>0.62920401764292377</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.65504830003642933</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>0.60561519677456088</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2263,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0.59215141526354653</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0</v>
+        <v>0.75587999037818276</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0">
-        <v>0</v>
+        <v>0.75042069491325214</v>
       </c>
       <c r="AW11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2356,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0</v>
+        <v>0.65814016640148298</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0</v>
+        <v>0.58099506000977574</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>0</v>
+        <v>0.85250832169182855</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>0.66151905874934147</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.8491291323643273</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.75285642853768164</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="0">
-        <v>0</v>
+        <v>0.93203590723713858</v>
       </c>
       <c r="AH12" s="0">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.7587056282862692</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.71005981112296546</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>0</v>
+        <v>0.91585607623156262</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0</v>
+        <v>0.52661298990381145</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>0</v>
+        <v>0.60772099830332327</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -2768,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.58139733967650464</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0</v>
+        <v>0.70933633118541572</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>0</v>
+        <v>0.54875299461235483</v>
       </c>
       <c r="AZ14" s="0">
         <v>0</v>
@@ -2977,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>0</v>
+        <v>0.80280939840606513</v>
       </c>
       <c r="BI14" s="0">
-        <v>0</v>
+        <v>0.80433376515095867</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.72658179110132837</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="0">
-        <v>0</v>
+        <v>0.74971703796792766</v>
       </c>
       <c r="AC15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0</v>
+        <v>0.83544093466450464</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>0</v>
+        <v>0.919946754913188</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="BP15" s="0">
-        <v>0</v>
+        <v>0.93802651035940343</v>
       </c>
     </row>
     <row r="16">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>0.88038474369017572</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.73180037402924247</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="0">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0</v>
+        <v>0.71193415748611222</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>0</v>
+        <v>0.61733951862116943</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>0.53868893926192585</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0</v>
+        <v>0.52304061975030292</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0</v>
+        <v>0.51063906325078134</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3601,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.80635777870291703</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="0">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>0</v>
+        <v>0.75079435427273522</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>0</v>
+        <v>0.66507728515314313</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>0</v>
+        <v>0.62243633195502812</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0</v>
+        <v>0.54186758850894856</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>0</v>
+        <v>0.77958206940927144</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>0.66846239899843707</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>0.76678828284003298</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.67538681367634501</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="0">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="BN20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>0.92189969867474297</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>0.69835220539776333</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.95427240967231408</v>
       </c>
       <c r="AN21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="0">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="BO21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.77265338566111785</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.52393411858772609</v>
       </c>
       <c r="Y22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0</v>
+        <v>0.87935697421715997</v>
       </c>
       <c r="AQ22" s="0">
         <v>0</v>
@@ -4601,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
       </c>
       <c r="AZ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="0">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="0">
-        <v>0</v>
+        <v>0.77090478606406976</v>
       </c>
       <c r="BF22" s="0">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>0</v>
+        <v>0.5491538010831376</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0</v>
+        <v>0.67018587482855096</v>
       </c>
       <c r="AK23" s="0">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>0</v>
+        <v>0.82175581629856587</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0</v>
+        <v>0.7072741776874174</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -4902,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>0</v>
+        <v>0.55401351960963363</v>
       </c>
       <c r="N24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.97570145524401841</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.98328434339871551</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>0</v>
+        <v>0.5188306150254427</v>
       </c>
       <c r="AD24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>0</v>
+        <v>0.72021506334534058</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.66131119605020805</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5159,13 +5159,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>0</v>
+        <v>0.73617607953782427</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
       </c>
       <c r="AF25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AT25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>0</v>
+        <v>0.57775895644151531</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5308,10 +5308,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.50057884849928724</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="0">
-        <v>0</v>
+        <v>0.73055098372452221</v>
       </c>
       <c r="AT26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0</v>
+        <v>0.64186444057209435</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="0">
-        <v>0</v>
+        <v>0.53962281485866415</v>
       </c>
       <c r="BN26" s="0">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0</v>
+        <v>0.73566876608642828</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.85801116173516334</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5604,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="AO27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="0">
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0</v>
+        <v>0.64287911048124946</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>0</v>
+        <v>0.52520582986658959</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>0</v>
+        <v>0.82561658013968597</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5679,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>0</v>
+        <v>0.93644662363247322</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0.89334989605810344</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="0">
-        <v>0</v>
+        <v>0.57868543372551606</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.95556035005590956</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AX28" s="0">
-        <v>1</v>
+        <v>0.86724194424322121</v>
       </c>
       <c r="AY28" s="0">
         <v>0</v>
@@ -5849,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>0</v>
+        <v>0.81125777032787028</v>
       </c>
       <c r="BC28" s="0">
-        <v>0</v>
+        <v>0.72598973678137402</v>
       </c>
       <c r="BD28" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0">
-        <v>0</v>
+        <v>0.57858715465043664</v>
       </c>
       <c r="Y29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.76988155615491338</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AO29" s="0">
-        <v>0</v>
+        <v>0.99965798957394791</v>
       </c>
       <c r="AP29" s="0">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>0</v>
+        <v>0.95428596048111369</v>
       </c>
       <c r="Z30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.99951405414108441</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.80652560933101136</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.93935862213400312</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.93343899416457721</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
       </c>
       <c r="AI31" s="0">
-        <v>0</v>
+        <v>0.74606868034071105</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6446,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0</v>
+        <v>0.55473929739446959</v>
       </c>
       <c r="AV31" s="0">
-        <v>0</v>
+        <v>0.75282713218637942</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>0</v>
+        <v>0.77795222404024145</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.85379430643772913</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.63849541896241624</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6658,13 +6658,13 @@
         <v>0</v>
       </c>
       <c r="AW32" s="0">
-        <v>0</v>
+        <v>0.80396455610658224</v>
       </c>
       <c r="AX32" s="0">
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6753,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>0</v>
+        <v>0.72836108392236221</v>
       </c>
       <c r="M33" s="0">
-        <v>0</v>
+        <v>0.99472744027264515</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.87132663217438444</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.80652249338395876</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.88754507785464365</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AM33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="AW33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="0">
         <v>0</v>
@@ -6903,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>0</v>
+        <v>0.55290405064604564</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7088,19 +7088,19 @@
         <v>0</v>
       </c>
       <c r="BC34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="0">
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>0</v>
+        <v>0.61543334882666634</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0</v>
+        <v>0.65855846856237155</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>0</v>
+        <v>0.89794208327328962</v>
       </c>
     </row>
     <row r="35">
@@ -7150,13 +7150,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
+        <v>0.65082649999497599</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7186,10 +7186,10 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7222,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>0</v>
+        <v>0.81204599916156162</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.98350831801230165</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="0">
-        <v>0</v>
+        <v>0.6110238819478343</v>
       </c>
       <c r="AT35" s="0">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="0">
-        <v>0</v>
+        <v>0.67861793461642761</v>
       </c>
       <c r="X36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.58407178327838483</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="AV36" s="0">
-        <v>0</v>
+        <v>0.9081286118970332</v>
       </c>
       <c r="AW36" s="0">
         <v>0</v>
@@ -7649,22 +7649,22 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.95374909310136369</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.75427475889315732</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0</v>
+        <v>0.61248958676983833</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="0">
-        <v>0</v>
+        <v>0.89091510542904251</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="0">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="0">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>0</v>
+        <v>0.65919511217585169</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>0</v>
+        <v>0.89447670143980529</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.97383402323105817</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.79305878923610051</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>0</v>
+        <v>0.99599500925156259</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>1</v>
+        <v>0.77698398181329531</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AX39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="0">
         <v>0</v>
@@ -8121,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="BD39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE39" s="0">
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>0.90758226969920841</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0</v>
+        <v>0.64941754227262638</v>
       </c>
     </row>
     <row r="41">
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="0">
         <v>0</v>
@@ -8446,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
       </c>
       <c r="AC41" s="0">
-        <v>0</v>
+        <v>0.59853733393630604</v>
       </c>
       <c r="AD41" s="0">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8506,19 +8506,19 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>0</v>
+        <v>0.98622795858435452</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0</v>
+        <v>0.844454600666531</v>
       </c>
       <c r="W42" s="0">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0</v>
+        <v>0.83232145691906145</v>
       </c>
       <c r="AN42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.55456196626014398</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>0</v>
+        <v>0.94225710597432899</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="0">
-        <v>0</v>
+        <v>0.6800441022406456</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>0</v>
+        <v>0.51129394776832826</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="0">
-        <v>0</v>
+        <v>0.91494201556146737</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0</v>
+        <v>0.94184526015966663</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>0.55671430268544886</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8918,10 +8918,10 @@
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="0">
         <v>0</v>
@@ -8930,16 +8930,16 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="0">
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>0</v>
+        <v>0.5061083327966629</v>
       </c>
       <c r="BC43" s="0">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="0">
-        <v>0</v>
+        <v>0.54739673554284263</v>
       </c>
       <c r="BG43" s="0">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="BI43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.51414891321224632</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.83035992182957197</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.78254737411928121</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0</v>
+        <v>0.96593561788749494</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>0.81986581828283844</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="0">
-        <v>0</v>
+        <v>0.77532506265133994</v>
       </c>
       <c r="AA45" s="0">
         <v>0</v>
@@ -9291,10 +9291,10 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="0">
-        <v>0</v>
+        <v>0.59618774930972873</v>
       </c>
       <c r="AJ45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.51394516916160404</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="0">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>0</v>
+        <v>0.84263805938140435</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0</v>
+        <v>0.72119013291010403</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="0">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>0</v>
+        <v>0.56948357153288176</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.89713355599247446</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>0</v>
+        <v>0.75444590093440966</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="0">
-        <v>0</v>
+        <v>0.94508536881594085</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -9718,19 +9718,19 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>1</v>
+        <v>0.69975499836089328</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
       </c>
       <c r="AQ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="0">
-        <v>0</v>
+        <v>0.94420048277835011</v>
       </c>
       <c r="F48" s="0">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>0</v>
+        <v>0.52981800995874395</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>0</v>
+        <v>0.6560635903589298</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>0</v>
+        <v>0.84755757451627356</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="BC48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD48" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0</v>
+        <v>0.7495924138114618</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10088,13 +10088,13 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0</v>
+        <v>0.99201043064320515</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>0</v>
+        <v>0.96053516390894189</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="AF49" s="0">
-        <v>0</v>
+        <v>0.55729751667315486</v>
       </c>
       <c r="AG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="0">
         <v>0</v>
@@ -10133,10 +10133,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>0.66772968461026305</v>
       </c>
       <c r="AO49" s="0">
-        <v>0</v>
+        <v>0.64326693694691495</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="BI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49" s="0">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="0">
-        <v>1</v>
+        <v>0.88062822286873077</v>
       </c>
       <c r="AC50" s="0">
         <v>0</v>
@@ -10333,10 +10333,10 @@
         <v>0</v>
       </c>
       <c r="AL50" s="0">
-        <v>0</v>
+        <v>0.70395940662731382</v>
       </c>
       <c r="AM50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0</v>
+        <v>0.77324962143608889</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0</v>
+        <v>0.75951170420249881</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10467,10 +10467,10 @@
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>0</v>
+        <v>0.67321881976143483</v>
       </c>
       <c r="O51" s="0">
-        <v>0</v>
+        <v>0.76851348564619704</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10548,13 +10548,13 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0</v>
+        <v>0.9995560665894756</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>0</v>
+        <v>0.71821141719998627</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>0</v>
+        <v>0.75308658198938094</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0">
         <v>0</v>
       </c>
       <c r="R52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
@@ -10697,13 +10697,13 @@
         <v>0</v>
       </c>
       <c r="V52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="0">
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10760,13 +10760,13 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="0">
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>0</v>
+        <v>0.85774887179074022</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>0</v>
+        <v>0.67547837618583439</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>0</v>
+        <v>0.8095266402675827</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -11002,16 +11002,16 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0</v>
+        <v>0.51750326533900926</v>
       </c>
     </row>
     <row r="54">
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>0</v>
+        <v>0.50098919002193576</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0">
-        <v>0</v>
+        <v>0.5040549416885125</v>
       </c>
       <c r="AR54" s="0">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="BE54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF54" s="0">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>0</v>
+        <v>0.72566127904327915</v>
       </c>
       <c r="BN54" s="0">
         <v>0</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0</v>
+        <v>0.76023645984002131</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="0">
-        <v>0</v>
+        <v>0.54589058763889886</v>
       </c>
       <c r="AC55" s="0">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="0">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AV55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.96546883952538465</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>0</v>
+        <v>0.81090119991881815</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.67036838388001874</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,10 +11629,10 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
-        <v>0</v>
+        <v>0.83943956889168614</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11659,12 +11659,12 @@
         <v>0</v>
       </c>
       <c r="BP56" s="0">
-        <v>0</v>
+        <v>0.74174101332424258</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -11694,13 +11694,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>0.96462013384370748</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="0">
-        <v>0</v>
+        <v>0.955023649538707</v>
       </c>
       <c r="W57" s="0">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0</v>
+        <v>0.92533484047431391</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11820,10 +11820,10 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC57" s="0">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="BK57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL57" s="0">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>0</v>
+        <v>0.93678892583023843</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -11885,10 +11885,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.56496880813208405</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.77811218659576586</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>0</v>
+        <v>0.80714471892980799</v>
       </c>
       <c r="AR58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12106,13 +12106,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="0">
-        <v>0</v>
+        <v>0.61900232371853403</v>
       </c>
       <c r="L59" s="0">
         <v>0</v>
       </c>
       <c r="M59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0</v>
+        <v>0.84503103152419157</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>0</v>
+        <v>0.54314441457797724</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0</v>
+        <v>0.94201194861776993</v>
       </c>
       <c r="BE59" s="0">
         <v>0</v>
@@ -12259,13 +12259,13 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0</v>
+        <v>0.98554854776844758</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>0.67578702674797997</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>0</v>
+        <v>0.51209313121341515</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>0</v>
+        <v>0.81974352255461014</v>
       </c>
       <c r="O60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="0">
-        <v>0</v>
+        <v>0.82554656248822234</v>
       </c>
       <c r="X60" s="0">
         <v>0</v>
@@ -12462,16 +12462,16 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.85381075522827343</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0</v>
+        <v>0.69927466471189326</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0</v>
+        <v>0.6924190342051213</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0</v>
+        <v>0.92880398031489075</v>
       </c>
       <c r="O61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="0">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="AW61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.70456151895025132</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>0</v>
+        <v>0.74226360986605877</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12736,13 +12736,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>0</v>
+        <v>0.81267891473083165</v>
       </c>
       <c r="AA62" s="0">
         <v>0</v>
@@ -12790,10 +12790,10 @@
         <v>0</v>
       </c>
       <c r="AG62" s="0">
-        <v>0</v>
+        <v>0.87016507757677697</v>
       </c>
       <c r="AH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12868,10 +12868,10 @@
         <v>0</v>
       </c>
       <c r="BG62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.71722347252930185</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0</v>
+        <v>0.72228839741883843</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>0</v>
+        <v>0.81782292463833561</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF63" s="0">
         <v>0</v>
@@ -13083,13 +13083,13 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.80564891878318079</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.5047218758049532</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="AG64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="0">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AV64" s="0">
-        <v>0</v>
+        <v>0.86428493131425443</v>
       </c>
       <c r="AW64" s="0">
         <v>0</v>
@@ -13280,10 +13280,10 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0</v>
+        <v>0.64048107505060492</v>
       </c>
       <c r="BH64" s="0">
-        <v>0</v>
+        <v>0.51921772227007268</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
@@ -13292,13 +13292,13 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.64770946347648173</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="0">
-        <v>0</v>
+        <v>0.66433089129035217</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="0">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>0</v>
+        <v>0.8439721451104597</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>0</v>
+        <v>0.93941957965402489</v>
       </c>
       <c r="AA65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0</v>
+        <v>0.56016509470451004</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>0</v>
+        <v>0.51069997765739139</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13539,16 +13539,16 @@
         <v>0</v>
       </c>
       <c r="H66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0</v>
+        <v>0.82387127900828827</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13575,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" s="0">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>0</v>
+        <v>0.97581488812417327</v>
       </c>
       <c r="Y66" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>0</v>
+        <v>0.86212386347529368</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>0</v>
+        <v>0.72910243700675226</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.91728010725757714</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" s="0">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="0">
-        <v>0</v>
+        <v>0.5869479458008745</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.74598209761633805</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.59987326688412912</v>
       </c>
     </row>
     <row r="68">
@@ -13972,13 +13972,13 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>0</v>
+        <v>0.58140758688503069</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0</v>
+        <v>0.52855867675529755</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0</v>
+        <v>0.97612268658195345</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>0</v>
+        <v>0.56301815788050602</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="0">
-        <v>0</v>
+        <v>0.73099236871799556</v>
       </c>
       <c r="BE68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.51317857723823046</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject33.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject33.xlsx
@@ -155,7 +155,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="0">
-        <v>0.6264738997929028</v>
+        <v>0.62920401764292377</v>
       </c>
       <c r="K1" s="0">
         <v>0</v>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>0.5623123826039842</v>
+        <v>0.92189969867474297</v>
       </c>
       <c r="V2" s="0">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>0.53435591792862258</v>
+        <v>0.66846239899843707</v>
       </c>
       <c r="U3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0.66039610114869718</v>
+        <v>0.66433089129035217</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0.73800885461036869</v>
+        <v>0.88038474369017572</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0.70496421241406404</v>
+        <v>0.7072741776874174</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.74979143103983503</v>
+        <v>0.84263805938140435</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
       </c>
       <c r="AV5" s="0">
-        <v>0.63345647633669966</v>
+        <v>0.94420048277835011</v>
       </c>
       <c r="AW5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0.56635277684198493</v>
+        <v>0.67578702674797997</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.73006015179861961</v>
+        <v>0.8399651978984245</v>
       </c>
       <c r="H6" s="0">
         <v>0.93541569112509593</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>0.78548713688544647</v>
+        <v>0.89447670143980529</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0.70069361079729875</v>
+        <v>0.77811218659576586</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.75216549209998307</v>
+        <v>0.75712034441793175</v>
       </c>
       <c r="F8" s="0">
-        <v>0.60303685412478703</v>
+        <v>0.93541569112509593</v>
       </c>
       <c r="G8" s="0">
-        <v>0.69907071861547121</v>
+        <v>0.83732763869330773</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0.58777828132866983</v>
+        <v>0.72119013291010403</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0.80685664411202329</v>
+        <v>0.82387127900828827</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.65504830003642933</v>
+        <v>0.8491291323643273</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0.60561519677456088</v>
+        <v>0.69835220539776333</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.59215141526354653</v>
+        <v>0.89334989605810344</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.75587999037818276</v>
+        <v>0.91494201556146737</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
@@ -2356,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0.65814016640148298</v>
+        <v>0.96462013384370748</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0.58099506000977574</v>
+        <v>0.61900232371853403</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.66151905874934147</v>
+        <v>0.93586604860607547</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.75285642853768164</v>
+        <v>0.7587056282862692</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.71005981112296546</v>
+        <v>0.72658179110132837</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0.52661298990381145</v>
+        <v>0.99472744027264515</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>0.60772099830332327</v>
+        <v>0.75308658198938094</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0.58139733967650464</v>
+        <v>0.89338930329309507</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.70933633118541572</v>
+        <v>0.73566876608642828</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>0.54875299461235483</v>
+        <v>0.67321881976143483</v>
       </c>
       <c r="AZ14" s="0">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>0.80280939840606513</v>
+        <v>0.81974352255461014</v>
       </c>
       <c r="BI14" s="0">
-        <v>0.80433376515095867</v>
+        <v>0.92880398031489075</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.73180037402924247</v>
+        <v>0.80635777870291703</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0.71193415748611222</v>
+        <v>0.72228839741883843</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>0.61733951862116943</v>
+        <v>0.8439721451104597</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0.53868893926192585</v>
+        <v>0.63017391884893026</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0.52304061975030292</v>
+        <v>0.60108379458087224</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0.51063906325078134</v>
+        <v>0.94184526015966663</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>0.75079435427273522</v>
+        <v>0.81090119991881815</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>0.66507728515314313</v>
+        <v>0.87460701918335348</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0.54186758850894856</v>
+        <v>0.81986581828283844</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0.66846239899843707</v>
       </c>
       <c r="D20" s="0">
-        <v>0.76678828284003298</v>
+        <v>0.8460766892043009</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.67538681367634501</v>
+        <v>0.77265338566111785</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.95427240967231408</v>
+        <v>0.97383402323105817</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0.52393411858772609</v>
+        <v>0.97570145524401841</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="0">
-        <v>0.77090478606406976</v>
+        <v>0.955023649538707</v>
       </c>
       <c r="BF22" s="0">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>0.5491538010831376</v>
+        <v>0.62243633195502812</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0.67018587482855096</v>
+        <v>0.67861793461642761</v>
       </c>
       <c r="AK23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>0.82175581629856587</v>
+        <v>0.82554656248822234</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>0.55401351960963363</v>
+        <v>0.91585607623156262</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.5188306150254427</v>
+        <v>0.57858715465043664</v>
       </c>
       <c r="AD24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>0.72021506334534058</v>
+        <v>0.97581488812417327</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.66131119605020805</v>
+        <v>0.85801116173516334</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.73617607953782427</v>
+        <v>0.95428596048111369</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>0.57775895644151531</v>
+        <v>0.99201043064320515</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.50057884849928724</v>
+        <v>0.98328434339871551</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="0">
-        <v>0.73055098372452221</v>
+        <v>0.77532506265133994</v>
       </c>
       <c r="AT26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0.64186444057209435</v>
+        <v>0.81267891473083165</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="0">
-        <v>0.53962281485866415</v>
+        <v>0.93941957965402489</v>
       </c>
       <c r="BN26" s="0">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>0.52520582986658959</v>
+        <v>0.96053516390894189</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="0">
-        <v>0.57868543372551606</v>
+        <v>0.74971703796792766</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.95556035005590956</v>
+        <v>0.99951405414108441</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AX28" s="0">
-        <v>0.86724194424322121</v>
+        <v>0.88062822286873077</v>
       </c>
       <c r="AY28" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.76988155615491338</v>
+        <v>0.93935862213400312</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.80652560933101136</v>
+        <v>0.85379430643772913</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="0">
-        <v>0.74606868034071105</v>
+        <v>0.81204599916156162</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0.55473929739446959</v>
+        <v>0.94508536881594085</v>
       </c>
       <c r="AV31" s="0">
         <v>0.75282713218637942</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>0.77795222404024145</v>
+        <v>0.83544093466450464</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.63849541896241624</v>
+        <v>0.80652249338395876</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>0.72836108392236221</v>
+        <v>0.93203590723713858</v>
       </c>
       <c r="M33" s="0">
         <v>0.99472744027264515</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.87132663217438444</v>
+        <v>0.93343899416457721</v>
       </c>
       <c r="AF33" s="0">
         <v>0.80652249338395876</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.88754507785464365</v>
+        <v>0.98350831801230165</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>0.55290405064604564</v>
+        <v>0.87016507757677697</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
@@ -7094,13 +7094,13 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>0.61543334882666634</v>
+        <v>0.92533484047431391</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0.65855846856237155</v>
+        <v>0.84503103152419157</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0.65082649999497599</v>
+        <v>0.88177712541782305</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.58407178327838483</v>
+        <v>0.95374909310136369</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.75427475889315732</v>
+        <v>0.79305878923610051</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="0">
-        <v>0.89091510542904251</v>
+        <v>0.93116680180552358</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>0.65919511217585169</v>
+        <v>0.70395940662731382</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0.64941754227262638</v>
+        <v>0.97612268658195345</v>
       </c>
     </row>
     <row r="41">
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="0">
-        <v>0.59853733393630604</v>
+        <v>0.99965798957394791</v>
       </c>
       <c r="AD41" s="0">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0.844454600666531</v>
+        <v>0.87935697421715997</v>
       </c>
       <c r="W42" s="0">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0.83232145691906145</v>
+        <v>0.99599500925156259</v>
       </c>
       <c r="AN42" s="0">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="0">
-        <v>0.6800441022406456</v>
+        <v>0.74934022959056135</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>0.51129394776832826</v>
+        <v>0.791972499707429</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0.55671430268544886</v>
+        <v>0.64287911048124946</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="0">
-        <v>0.54739673554284263</v>
+        <v>0.80714471892980799</v>
       </c>
       <c r="BG43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.51414891321224632</v>
+        <v>0.55456196626014398</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0.83035992182957197</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.78254737411928121</v>
+        <v>0.89713355599247446</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="0">
-        <v>0.59618774930972873</v>
+        <v>0.6110238819478343</v>
       </c>
       <c r="AJ45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.51394516916160404</v>
+        <v>0.83035992182957197</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>0.56948357153288176</v>
+        <v>0.61248958676983833</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>0.75444590093440966</v>
+        <v>0.9995560665894756</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>0.69975499836089328</v>
+        <v>0.77698398181329531</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>0.52981800995874395</v>
+        <v>0.75042069491325214</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>0.6560635903589298</v>
+        <v>0.75282713218637942</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>0.84755757451627356</v>
+        <v>0.9081286118970332</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0.7495924138114618</v>
+        <v>0.86428493131425443</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="0">
-        <v>0.55729751667315486</v>
+        <v>0.80396455610658224</v>
       </c>
       <c r="AG49" s="0">
         <v>0</v>
@@ -10133,10 +10133,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0.66772968461026305</v>
+        <v>0.90758226969920841</v>
       </c>
       <c r="AO49" s="0">
-        <v>0.64326693694691495</v>
+        <v>0.98622795858435452</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0.67321881976143483</v>
       </c>
       <c r="O51" s="0">
-        <v>0.76851348564619704</v>
+        <v>0.919946754913188</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>0.71821141719998627</v>
+        <v>0.98030228986320833</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>0.85774887179074022</v>
+        <v>0.93066809021893604</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>0.67547837618583439</v>
+        <v>0.77958206940927144</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>0.8095266402675827</v>
+        <v>0.96593561788749494</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0.51750326533900926</v>
+        <v>0.56301815788050602</v>
       </c>
     </row>
     <row r="54">
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>0.50098919002193576</v>
+        <v>0.81125777032787028</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0">
-        <v>0.5040549416885125</v>
+        <v>0.5061083327966629</v>
       </c>
       <c r="AR54" s="0">
         <v>0</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.76023645984002131</v>
+        <v>0.94412326198865704</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="0">
-        <v>0.54589058763889886</v>
+        <v>0.72598973678137402</v>
       </c>
       <c r="AC55" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.67036838388001874</v>
+        <v>0.96546883952538465</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="BG56" s="0">
-        <v>0.83943956889168614</v>
+        <v>0.94201194861776993</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0.56496880813208405</v>
+        <v>0.74831613585283918</v>
       </c>
       <c r="G58" s="0">
         <v>0.77811218659576586</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>0.54314441457797724</v>
+        <v>0.77324962143608889</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>0.51209313121341515</v>
+        <v>0.88429084893402232</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0.6924190342051213</v>
+        <v>0.85250832169182855</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.70456151895025132</v>
+        <v>0.85381075522827343</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>0.74226360986605877</v>
+        <v>0.86622687950085675</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.71722347252930185</v>
+        <v>0.80564891878318079</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>0.81782292463833561</v>
+        <v>0.82561658013968597</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.5047218758049532</v>
+        <v>0.64770946347648173</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13280,10 +13280,10 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0.64048107505060492</v>
+        <v>0.98554854776844758</v>
       </c>
       <c r="BH64" s="0">
-        <v>0.51921772227007268</v>
+        <v>0.69927466471189326</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0.56016509470451004</v>
+        <v>0.75951170420249881</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>0.51069997765739139</v>
+        <v>0.72566127904327915</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>0.86212386347529368</v>
+        <v>0.94225710597432899</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>0.72910243700675226</v>
+        <v>0.93678892583023843</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="0">
-        <v>0.5869479458008745</v>
+        <v>0.93644662363247322</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.74598209761633805</v>
+        <v>0.91728010725757714</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>0.58140758688503069</v>
+        <v>0.93802651035940343</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0.52855867675529755</v>
+        <v>0.89794208327328962</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="0">
-        <v>0.73099236871799556</v>
+        <v>0.74174101332424258</v>
       </c>
       <c r="BE68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.51317857723823046</v>
+        <v>0.59987326688412912</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
